--- a/CAP_106_Research_Env/EDA_Report/CorrInfo/ds_ratio_corr_info.xlsx
+++ b/CAP_106_Research_Env/EDA_Report/CorrInfo/ds_ratio_corr_info.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SABYA\Aritar01\CAP_106\CAP_106_Research_Env\EDA_Report\CorrInfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1A76EF6-7106-4EB8-B4C1-B5D7CC2F17A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD1580DF-5D45-43FE-B413-9E31FDFBC4A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -406,12 +406,12 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B8"/>
+      <selection activeCell="B2" sqref="B2:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -424,7 +424,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.97917845081192856</v>
+        <v>0.97656662243270453</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -432,7 +432,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.97452991870507544</v>
+        <v>0.9699058180082526</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -440,7 +440,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.98609896135669872</v>
+        <v>0.98166582436527439</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -448,7 +448,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.96776834630997843</v>
+        <v>0.95329013296311771</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -456,7 +456,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.97410223696948084</v>
+        <v>0.96194049120392988</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -464,7 +464,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.96101523547099743</v>
+        <v>0.94119444362225324</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
